--- a/docs/mcode-r4/obf-AccessionIdentifier.xlsx
+++ b/docs/mcode-r4/obf-AccessionIdentifier.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="181">
   <si>
     <t>Path</t>
   </si>
@@ -1776,7 +1776,9 @@
       <c r="J10" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="L10" t="s" s="2">
         <v>92</v>
       </c>
